--- a/ipl-2020-21-1210595/mumbai indians vs rajasthan royals 20th match 1216511/Bowling1.xlsx
+++ b/ipl-2020-21-1210595/mumbai indians vs rajasthan royals 20th match 1216511/Bowling1.xlsx
@@ -592,37 +592,37 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>Kieron Pollard</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>24</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>12.00</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
